--- a/src/store/xlsx/Latina-2023-4-16.xlsx
+++ b/src/store/xlsx/Latina-2023-4-16.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="222">
   <si>
     <t>Level</t>
   </si>
@@ -58,21 +58,102 @@
     <t>A2</t>
   </si>
   <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>Jbdpozza_pocarr</t>
+  </si>
+  <si>
+    <t>Apr 15</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>PS.eu</t>
+  </si>
+  <si>
+    <t>3575892336</t>
+  </si>
+  <si>
+    <t>Jbdpozza</t>
+  </si>
+  <si>
+    <t>Hot $11, $8K Gtd</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>AAorAA7_pocarr</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>PS.es</t>
+  </si>
+  <si>
+    <t>3572964965</t>
+  </si>
+  <si>
+    <t>AAorAA7</t>
+  </si>
+  <si>
+    <t>Ultra KO €30 [Turbo], €2,500 Gtd</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>exfilerain_pocarr</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>3940652195840005</t>
+  </si>
+  <si>
+    <t>malaupt</t>
+  </si>
+  <si>
+    <t>MYSTERY BOUNTY Mini Main - $100K Top Bounty [Stage 1]</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
     <t>6A</t>
   </si>
   <si>
     <t>TottiStarK_pocarr2</t>
   </si>
   <si>
-    <t>Apr 15</t>
-  </si>
-  <si>
     <t>02:05</t>
   </si>
   <si>
-    <t>GG</t>
-  </si>
-  <si>
     <t>3940653474252037</t>
   </si>
   <si>
@@ -88,60 +169,6 @@
     <t>169</t>
   </si>
   <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>AAorAA7_pocarr</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>PS.es</t>
-  </si>
-  <si>
-    <t>3572964965</t>
-  </si>
-  <si>
-    <t>AAorAA7</t>
-  </si>
-  <si>
-    <t>Ultra KO €30 [Turbo], €2,500 Gtd</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>exfilerain_pocarr</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>3940652195840005</t>
-  </si>
-  <si>
-    <t>malaupt</t>
-  </si>
-  <si>
-    <t>MYSTERY BOUNTY Mini Main - $100K Top Bounty [Stage 1]</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>1615</t>
-  </si>
-  <si>
     <t>gbastosv_pocarr</t>
   </si>
   <si>
@@ -157,33 +184,6 @@
     <t>1001</t>
   </si>
   <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>Jbdpozza_pocarr</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>PS.eu</t>
-  </si>
-  <si>
-    <t>3575892336</t>
-  </si>
-  <si>
-    <t>Jbdpozza</t>
-  </si>
-  <si>
-    <t>Hot $11, $8K Gtd</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
     <t>0A</t>
   </si>
   <si>
@@ -304,6 +304,15 @@
     <t>8.51</t>
   </si>
   <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>Emanuel-RSBR_pocarr</t>
+  </si>
+  <si>
+    <t>TheGhostBuster</t>
+  </si>
+  <si>
     <t>gambit_aax_pocarr</t>
   </si>
   <si>
@@ -319,562 +328,325 @@
     <t>1134</t>
   </si>
   <si>
+    <t>Velho_rhanis_pocarr</t>
+  </si>
+  <si>
+    <t>18:59</t>
+  </si>
+  <si>
+    <t>3568248807</t>
+  </si>
+  <si>
+    <t>Velh0_rhanis</t>
+  </si>
+  <si>
+    <t>SCOOP-157 Turbo Satellite: €5 Last Chance, 10 seats gtd</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>luccaspie_pocarr</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>3575888985</t>
+  </si>
+  <si>
+    <t>luccaspie</t>
+  </si>
+  <si>
+    <t>Big $22, $2.5K Gtd</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>Matuks_pocarr2</t>
+  </si>
+  <si>
+    <t>cleyton</t>
+  </si>
+  <si>
+    <t>matheushfc_pocarr</t>
+  </si>
+  <si>
+    <t>WNMX</t>
+  </si>
+  <si>
+    <t>644475852</t>
+  </si>
+  <si>
+    <t>LordShivAaa</t>
+  </si>
+  <si>
+    <t>GLADIATOR</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
     <t>7C</t>
   </si>
   <si>
-    <t>ellviissss91_pocarr</t>
-  </si>
-  <si>
-    <t>Apr 14</t>
-  </si>
-  <si>
-    <t>3940652480856069</t>
-  </si>
-  <si>
-    <t>duminelli2021</t>
-  </si>
-  <si>
-    <t>Bounty Forty Stack $44</t>
+    <t>leonardo4486_pocarr</t>
+  </si>
+  <si>
+    <t>644474306</t>
+  </si>
+  <si>
+    <t>leonardo4486</t>
+  </si>
+  <si>
+    <t>MYSTERY KO</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>1794</t>
-  </si>
-  <si>
-    <t>0C</t>
-  </si>
-  <si>
-    <t>BruceFrigé_pocarr</t>
+    <t>525</t>
+  </si>
+  <si>
+    <t>Biodelic420_pocarr</t>
+  </si>
+  <si>
+    <t>3940652212617221</t>
+  </si>
+  <si>
+    <t>MariaFlor</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>3940652971065349</t>
+  </si>
+  <si>
+    <t>Global MILLION$ Bounty Edition, $1M GTD [Stage 1]</t>
+  </si>
+  <si>
+    <t>81.25</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>Dowgh-santos_pocarr2</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>3940653413107205</t>
+  </si>
+  <si>
+    <t>Dowgh Santos</t>
+  </si>
+  <si>
+    <t>Bounty Hunters Deepstack Turbo $54</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>174.73</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>3564925044</t>
+  </si>
+  <si>
+    <t>Magnus-Futsal</t>
+  </si>
+  <si>
+    <t>SCOOP-160: €50 Hall of Fame [Progressive KO, 6-Max, Turbo], €20,000 guaranteed</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
+    <t>346</t>
   </si>
   <si>
     <t>20:30</t>
   </si>
   <si>
-    <t>3572967217</t>
-  </si>
-  <si>
-    <t>BruceFrigério</t>
-  </si>
-  <si>
-    <t>€5 NL Hold'em, €200 Gtd</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>Emanuel-RSBR_pocarr</t>
-  </si>
-  <si>
-    <t>TheGhostBuster</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>3940651877072901</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>9B</t>
-  </si>
-  <si>
-    <t>YetiCara_pocarr</t>
-  </si>
-  <si>
-    <t>WNMX</t>
-  </si>
-  <si>
-    <t>644141251</t>
-  </si>
-  <si>
-    <t>GrosPiedCara</t>
-  </si>
-  <si>
-    <t>MYSTERY KO</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>26.04</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>644140164</t>
-  </si>
-  <si>
-    <t>NIGHT CLUB</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>luccaspie_pocarr</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>3575888985</t>
-  </si>
-  <si>
-    <t>luccaspie</t>
-  </si>
-  <si>
-    <t>Big $22, $2.5K Gtd</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>messigoku_pocarr</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>3940650753262853</t>
-  </si>
-  <si>
-    <t>genkiQQ</t>
-  </si>
-  <si>
-    <t>Daily Big $10</t>
+    <t>3573544597</t>
+  </si>
+  <si>
+    <t>Dowgh-Santos</t>
+  </si>
+  <si>
+    <t>The Sprint: $55 NLHE [Progressive KO], $10K Gtd</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>18.75</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>3940653772701701</t>
+  </si>
+  <si>
+    <t>Big Game Omaholic $215</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>3940651466032645</t>
+  </si>
+  <si>
+    <t>Omaholic Bounty Deepstack $108</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>3940651978785285</t>
+  </si>
+  <si>
+    <t>Omaholic Bounty MILLION$, $250K GTD [Stage 1]</t>
+  </si>
+  <si>
+    <t>163.37</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>3575892381</t>
+  </si>
+  <si>
+    <t>Hot $109 [Progressive KO], $12K Gtd</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>3940651782702597</t>
+  </si>
+  <si>
+    <t>Bounty Hunters Deepstack Turbo $85.50</t>
+  </si>
+  <si>
+    <t>85.50</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>3940653353271301</t>
+  </si>
+  <si>
+    <t>Bounty Superstack $85.50</t>
+  </si>
+  <si>
+    <t>367.76</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>3575892356</t>
+  </si>
+  <si>
+    <t>Hot $55 [Progressive KO], $12K Gtd</t>
+  </si>
+  <si>
+    <t>142.68</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>3575893030</t>
+  </si>
+  <si>
+    <t>Omania $82 PLO8 [Weekend Special], $2.5K Gtd</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>3940653185499141</t>
+  </si>
+  <si>
+    <t>Ultra Deepstack Bounty Turbo $54</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>3940651962008069</t>
   </si>
   <si>
     <t>154</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>23:02</t>
-  </si>
-  <si>
-    <t>3573544543</t>
-  </si>
-  <si>
-    <t>messigoku</t>
-  </si>
-  <si>
-    <t>$11 Mini Fast Friday [8-Max, Turbo, Late Edition], $10K Gtd</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>3575889075</t>
-  </si>
-  <si>
-    <t>Big $22, $7K Gtd</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>3940651893850117</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>360207099</t>
-  </si>
-  <si>
-    <t>andK CALLelho</t>
-  </si>
-  <si>
-    <t>Daily Legends 6-Max Turbo: $1,250 Gtd</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>mirodelas7_pocarr</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>3564925021</t>
-  </si>
-  <si>
-    <t>joaomentias</t>
-  </si>
-  <si>
-    <t>SCOOP-150: €20 Bounty Champion [Progressive KO, 6-Max, Turbo], €25,000 guaranteed</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>arrastaetraz_pocarr</t>
-  </si>
-  <si>
-    <t>05:16</t>
-  </si>
-  <si>
-    <t>3577732161</t>
-  </si>
-  <si>
-    <t>arrastaetraz</t>
-  </si>
-  <si>
-    <t>$5.00 NL Hold'em [Turbo]</t>
-  </si>
-  <si>
-    <t>05:32</t>
-  </si>
-  <si>
-    <t>3577736160</t>
-  </si>
-  <si>
-    <t>$1.00 NL Hold'em [6-Max, Super-Knockout, Hyper-Turbo]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>leonardo4486_pocarr</t>
-  </si>
-  <si>
-    <t>644474306</t>
-  </si>
-  <si>
-    <t>leonardo4486</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>Velho_rhanis_pocarr</t>
-  </si>
-  <si>
-    <t>18:59</t>
-  </si>
-  <si>
-    <t>3568248807</t>
-  </si>
-  <si>
-    <t>Velh0_rhanis</t>
-  </si>
-  <si>
-    <t>SCOOP-157 Turbo Satellite: €5 Last Chance, 10 seats gtd</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>8B</t>
-  </si>
-  <si>
-    <t>Matuks_pocarr2</t>
-  </si>
-  <si>
-    <t>cleyton</t>
-  </si>
-  <si>
-    <t>matheushfc_pocarr</t>
-  </si>
-  <si>
-    <t>644475852</t>
-  </si>
-  <si>
-    <t>LordShivAaa</t>
-  </si>
-  <si>
-    <t>GLADIATOR</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>parabotchey_pocarr</t>
-  </si>
-  <si>
-    <t>WPN</t>
-  </si>
-  <si>
-    <t>29492832</t>
-  </si>
-  <si>
-    <t>Parabotchey_CWB</t>
-  </si>
-  <si>
-    <t>Mega Stack - $1,000 GTD</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>Biodelic420_pocarr</t>
-  </si>
-  <si>
-    <t>3940652212617221</t>
-  </si>
-  <si>
-    <t>MariaFlor</t>
-  </si>
-  <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>3940652971065349</t>
-  </si>
-  <si>
-    <t>Global MILLION$ Bounty Edition, $1M GTD [Stage 1]</t>
-  </si>
-  <si>
-    <t>81.25</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>10B</t>
-  </si>
-  <si>
-    <t>Dowgh-santos_pocarr2</t>
-  </si>
-  <si>
-    <t>19:15</t>
-  </si>
-  <si>
-    <t>3940653413107205</t>
-  </si>
-  <si>
-    <t>Dowgh Santos</t>
-  </si>
-  <si>
-    <t>Bounty Hunters Deepstack Turbo $54</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>174.73</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>11B</t>
-  </si>
-  <si>
-    <t>3564925044</t>
-  </si>
-  <si>
-    <t>Magnus-Futsal</t>
-  </si>
-  <si>
-    <t>SCOOP-160: €50 Hall of Fame [Progressive KO, 6-Max, Turbo], €20,000 guaranteed</t>
-  </si>
-  <si>
-    <t>33.75</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>3573544597</t>
-  </si>
-  <si>
-    <t>Dowgh-Santos</t>
-  </si>
-  <si>
-    <t>The Sprint: $55 NLHE [Progressive KO], $10K Gtd</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>18.75</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>17:40</t>
-  </si>
-  <si>
-    <t>3940653772701701</t>
-  </si>
-  <si>
-    <t>Big Game Omaholic $215</t>
-  </si>
-  <si>
-    <t>215.00</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>18:40</t>
-  </si>
-  <si>
-    <t>3940651466032645</t>
-  </si>
-  <si>
-    <t>Omaholic Bounty Deepstack $108</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>3940651978785285</t>
-  </si>
-  <si>
-    <t>Omaholic Bounty MILLION$, $250K GTD [Stage 1]</t>
-  </si>
-  <si>
-    <t>163.37</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>3575892381</t>
-  </si>
-  <si>
-    <t>Hot $109 [Progressive KO], $12K Gtd</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>3940651782702597</t>
-  </si>
-  <si>
-    <t>Bounty Hunters Deepstack Turbo $85.50</t>
-  </si>
-  <si>
-    <t>85.50</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>3940653353271301</t>
-  </si>
-  <si>
-    <t>Bounty Superstack $85.50</t>
-  </si>
-  <si>
-    <t>367.76</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>18:15</t>
-  </si>
-  <si>
-    <t>3575892356</t>
-  </si>
-  <si>
-    <t>Hot $55 [Progressive KO], $12K Gtd</t>
-  </si>
-  <si>
-    <t>142.68</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>16:25</t>
-  </si>
-  <si>
-    <t>3575893030</t>
-  </si>
-  <si>
-    <t>Omania $82 PLO8 [Weekend Special], $2.5K Gtd</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>13:15</t>
-  </si>
-  <si>
-    <t>3940653185499141</t>
-  </si>
-  <si>
-    <t>Ultra Deepstack Bounty Turbo $54</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>3940651962008069</t>
   </si>
   <si>
     <t>16:15</t>
@@ -1281,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O47"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1363,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8703</v>
+        <v>9006</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1372,10 +1144,10 @@
         <v>24</v>
       </c>
       <c r="N2">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O2">
-        <v>-2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1439,19 +1211,19 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1463,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>72</v>
@@ -1474,84 +1246,84 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1500000</v>
+        <v>8703</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5">
-        <v>70</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9006</v>
+        <v>1500000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1560,10 +1332,10 @@
         <v>56</v>
       </c>
       <c r="N6">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O6">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1580,7 +1352,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1627,7 +1399,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1674,7 +1446,7 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>69</v>
@@ -1721,7 +1493,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -1768,7 +1540,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>78</v>
@@ -1815,7 +1587,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1862,7 +1634,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>83</v>
@@ -1909,7 +1681,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1956,7 +1728,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2003,7 +1775,7 @@
         <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>89</v>
@@ -2050,7 +1822,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
@@ -2097,7 +1869,7 @@
         <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>93</v>
@@ -2144,7 +1916,7 @@
         <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>95</v>
@@ -2179,34 +1951,34 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>1500000</v>
@@ -2215,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>72</v>
@@ -2229,31 +2001,31 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
       </c>
       <c r="K21">
         <v>1500000</v>
@@ -2262,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="N21">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O21">
         <v>70</v>
@@ -2273,46 +2045,46 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1500000</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>96243</v>
-      </c>
-      <c r="L22" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" t="s">
-        <v>109</v>
-      </c>
       <c r="N22">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O22">
         <v>70</v>
@@ -2320,128 +2092,128 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
       </c>
-      <c r="J23">
-        <v>0</v>
+      <c r="J23" t="s">
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23">
-        <v>62</v>
-      </c>
-      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" t="s">
         <v>34</v>
+      </c>
+      <c r="O23">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1500000</v>
+        <v>2660</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="N24">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O24">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
         <v>121</v>
       </c>
-      <c r="G25" t="s">
-        <v>119</v>
-      </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
       </c>
       <c r="K25">
         <v>1500000</v>
@@ -2450,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>72</v>
@@ -2461,234 +2233,234 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
         <v>123</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
         <v>124</v>
       </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>125</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>126</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>127</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>20655</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
         <v>128</v>
       </c>
-      <c r="I26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26">
-        <v>22338</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>131</v>
-      </c>
       <c r="N26">
-        <v>60</v>
-      </c>
-      <c r="O26" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="O26">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
         <v>123</v>
       </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
         <v>132</v>
       </c>
-      <c r="E27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>133</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>127</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>30000</v>
+      </c>
+      <c r="L27" t="s">
         <v>134</v>
-      </c>
-      <c r="I27" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>19161</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
       </c>
       <c r="M27" t="s">
         <v>135</v>
       </c>
       <c r="N27">
-        <v>60</v>
-      </c>
-      <c r="O27" t="s">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="O27">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
         <v>136</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
         <v>137</v>
       </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>138</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1500000</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
         <v>139</v>
       </c>
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2660</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>143</v>
-      </c>
       <c r="N28">
+        <v>73</v>
+      </c>
+      <c r="O28">
         <v>70</v>
-      </c>
-      <c r="O28">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1500000</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
         <v>104</v>
       </c>
-      <c r="D29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1785</v>
-      </c>
-      <c r="L29" t="s">
-        <v>108</v>
-      </c>
-      <c r="M29" t="s">
-        <v>149</v>
-      </c>
       <c r="N29">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O29">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30">
+        <v>1000000</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
         <v>144</v>
       </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>11770</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>155</v>
-      </c>
       <c r="N30">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O30" t="s">
         <v>34</v>
@@ -2696,751 +2468,751 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31">
+        <v>27350</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
         <v>153</v>
       </c>
-      <c r="H31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>8500</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>159</v>
-      </c>
       <c r="N31">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O31">
-        <v>69</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32">
+        <v>20000</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>1500000</v>
-      </c>
-      <c r="L32" t="s">
-        <v>108</v>
-      </c>
-      <c r="M32" t="s">
-        <v>162</v>
-      </c>
-      <c r="N32">
-        <v>70</v>
-      </c>
-      <c r="O32">
-        <v>70</v>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" t="s">
         <v>163</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>164</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>165</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>166</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K33">
+        <v>10900</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
         <v>167</v>
       </c>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1490</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>168</v>
-      </c>
       <c r="N33">
-        <v>67</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="O33">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
         <v>169</v>
       </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" t="s">
         <v>170</v>
       </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>171</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>21094</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
         <v>172</v>
       </c>
-      <c r="H34" t="s">
-        <v>173</v>
-      </c>
-      <c r="I34" t="s">
-        <v>174</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>28872</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>175</v>
-      </c>
-      <c r="N34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" t="s">
-        <v>34</v>
+      <c r="N34">
+        <v>82</v>
+      </c>
+      <c r="O34">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" t="s">
         <v>176</v>
       </c>
-      <c r="B35" t="s">
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35">
+        <v>4200</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
         <v>177</v>
       </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" t="s">
-        <v>181</v>
-      </c>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>41</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>65</v>
-      </c>
-      <c r="N35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" t="s">
-        <v>34</v>
+      <c r="N35">
+        <v>80</v>
+      </c>
+      <c r="O35">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36">
+        <v>250000</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M36" t="s">
         <v>182</v>
       </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" t="s">
-        <v>184</v>
-      </c>
-      <c r="I36" t="s">
-        <v>185</v>
-      </c>
-      <c r="J36" t="s">
-        <v>186</v>
-      </c>
-      <c r="K36">
-        <v>6</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>187</v>
-      </c>
-      <c r="N36" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" t="s">
-        <v>34</v>
+      <c r="N36">
+        <v>72</v>
+      </c>
+      <c r="O36">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>30000</v>
-      </c>
-      <c r="L37" t="s">
-        <v>108</v>
+        <v>13800</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N37">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O37">
-        <v>68</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="H38" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" t="s">
-        <v>32</v>
+        <v>189</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>464</v>
+        <v>18480</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>198</v>
-      </c>
-      <c r="N38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N38">
+        <v>80</v>
+      </c>
+      <c r="O38" t="s">
         <v>34</v>
-      </c>
-      <c r="O38">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="K39">
-        <v>1500000</v>
+        <v>62400</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="N39">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O39">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J40" t="s">
+        <v>199</v>
       </c>
       <c r="K40">
-        <v>20655</v>
+        <v>14200</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N40">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O40">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1211</v>
-      </c>
-      <c r="L41" t="s">
-        <v>108</v>
+        <v>3075</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="N41">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="O41">
-        <v>62</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1500000</v>
+        <v>42800</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="N42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O42">
-        <v>70</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1500000</v>
+        <v>250000</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="N43">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O43">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G44" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44" t="s">
-        <v>222</v>
+        <v>204</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1000000</v>
+        <v>7200</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N44">
-        <v>70</v>
-      </c>
-      <c r="O44" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+      <c r="O44">
+        <v>-4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="H45" t="s">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>27350</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
+        <v>1500000</v>
+      </c>
+      <c r="L45" t="s">
+        <v>216</v>
       </c>
       <c r="M45" t="s">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="N45">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O45">
-        <v>-4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="H46" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J46" t="s">
-        <v>237</v>
+        <v>220</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>20000</v>
+        <v>27692</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>238</v>
-      </c>
-      <c r="N46" t="s">
-        <v>34</v>
+        <v>221</v>
+      </c>
+      <c r="N46">
+        <v>78</v>
       </c>
       <c r="O46" t="s">
         <v>34</v>
@@ -3448,706 +3220,48 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="H47" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
-      </c>
-      <c r="J47" t="s">
-        <v>243</v>
+        <v>42</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>10900</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
+        <v>1500000</v>
+      </c>
+      <c r="L47" t="s">
+        <v>216</v>
       </c>
       <c r="M47" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="N47">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I48" t="s">
-        <v>248</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>21094</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>249</v>
-      </c>
-      <c r="N48">
-        <v>82</v>
-      </c>
-      <c r="O48">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
-        <v>251</v>
-      </c>
-      <c r="G49" t="s">
-        <v>228</v>
-      </c>
-      <c r="H49" t="s">
-        <v>252</v>
-      </c>
-      <c r="I49" t="s">
-        <v>253</v>
-      </c>
-      <c r="J49" t="s">
-        <v>41</v>
-      </c>
-      <c r="K49">
-        <v>4200</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>254</v>
-      </c>
-      <c r="N49">
-        <v>80</v>
-      </c>
-      <c r="O49">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" t="s">
-        <v>256</v>
-      </c>
-      <c r="G50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H50" t="s">
-        <v>257</v>
-      </c>
-      <c r="I50" t="s">
-        <v>230</v>
-      </c>
-      <c r="J50" t="s">
-        <v>258</v>
-      </c>
-      <c r="K50">
-        <v>250000</v>
-      </c>
-      <c r="L50" t="s">
-        <v>108</v>
-      </c>
-      <c r="M50" t="s">
-        <v>259</v>
-      </c>
-      <c r="N50">
-        <v>72</v>
-      </c>
-      <c r="O50">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>233</v>
-      </c>
-      <c r="B51" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" t="s">
-        <v>260</v>
-      </c>
-      <c r="G51" t="s">
-        <v>240</v>
-      </c>
-      <c r="H51" t="s">
-        <v>261</v>
-      </c>
-      <c r="I51" t="s">
-        <v>262</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>13800</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
-        <v>263</v>
-      </c>
-      <c r="N51">
-        <v>78</v>
-      </c>
-      <c r="O51">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" t="s">
-        <v>264</v>
-      </c>
-      <c r="G52" t="s">
-        <v>228</v>
-      </c>
-      <c r="H52" t="s">
-        <v>265</v>
-      </c>
-      <c r="I52" t="s">
-        <v>266</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>18480</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>267</v>
-      </c>
-      <c r="N52">
-        <v>80</v>
-      </c>
-      <c r="O52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>224</v>
-      </c>
-      <c r="B53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>268</v>
-      </c>
-      <c r="E53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" t="s">
-        <v>228</v>
-      </c>
-      <c r="H53" t="s">
-        <v>270</v>
-      </c>
-      <c r="I53" t="s">
-        <v>266</v>
-      </c>
-      <c r="J53" t="s">
-        <v>271</v>
-      </c>
-      <c r="K53">
-        <v>62400</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" t="s">
-        <v>272</v>
-      </c>
-      <c r="N53">
-        <v>80</v>
-      </c>
-      <c r="O53">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>233</v>
-      </c>
-      <c r="B54" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>273</v>
-      </c>
-      <c r="E54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" t="s">
-        <v>274</v>
-      </c>
-      <c r="G54" t="s">
-        <v>240</v>
-      </c>
-      <c r="H54" t="s">
-        <v>275</v>
-      </c>
-      <c r="I54" t="s">
-        <v>242</v>
-      </c>
-      <c r="J54" t="s">
-        <v>276</v>
-      </c>
-      <c r="K54">
-        <v>14200</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>277</v>
-      </c>
-      <c r="N54">
-        <v>74</v>
-      </c>
-      <c r="O54">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>233</v>
-      </c>
-      <c r="B55" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" t="s">
-        <v>279</v>
-      </c>
-      <c r="G55" t="s">
-        <v>240</v>
-      </c>
-      <c r="H55" t="s">
-        <v>280</v>
-      </c>
-      <c r="I55" t="s">
-        <v>281</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>3075</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
-        <v>282</v>
-      </c>
-      <c r="N55">
-        <v>78</v>
-      </c>
-      <c r="O55">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>224</v>
-      </c>
-      <c r="B56" t="s">
-        <v>225</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
-        <v>283</v>
-      </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" t="s">
-        <v>285</v>
-      </c>
-      <c r="I56" t="s">
-        <v>230</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>42800</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>286</v>
-      </c>
-      <c r="N56">
-        <v>74</v>
-      </c>
-      <c r="O56">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>224</v>
-      </c>
-      <c r="B57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
-        <v>287</v>
-      </c>
-      <c r="G57" t="s">
-        <v>228</v>
-      </c>
-      <c r="H57" t="s">
-        <v>257</v>
-      </c>
-      <c r="I57" t="s">
-        <v>230</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>250000</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>149</v>
-      </c>
-      <c r="N57">
-        <v>72</v>
-      </c>
-      <c r="O57">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>233</v>
-      </c>
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>288</v>
-      </c>
-      <c r="E58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" t="s">
-        <v>289</v>
-      </c>
-      <c r="G58" t="s">
-        <v>240</v>
-      </c>
-      <c r="H58" t="s">
-        <v>290</v>
-      </c>
-      <c r="I58" t="s">
-        <v>281</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>7200</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>291</v>
-      </c>
-      <c r="N58">
-        <v>78</v>
-      </c>
-      <c r="O58">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>224</v>
-      </c>
-      <c r="B59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" t="s">
-        <v>228</v>
-      </c>
-      <c r="H59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59">
-        <v>1500000</v>
-      </c>
-      <c r="L59" t="s">
-        <v>292</v>
-      </c>
-      <c r="M59" t="s">
-        <v>47</v>
-      </c>
-      <c r="N59">
-        <v>72</v>
-      </c>
-      <c r="O59">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>293</v>
-      </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" t="s">
-        <v>294</v>
-      </c>
-      <c r="G60" t="s">
-        <v>228</v>
-      </c>
-      <c r="H60" t="s">
-        <v>295</v>
-      </c>
-      <c r="I60" t="s">
-        <v>296</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>27692</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
-        <v>297</v>
-      </c>
-      <c r="N60">
-        <v>78</v>
-      </c>
-      <c r="O60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" t="s">
-        <v>228</v>
-      </c>
-      <c r="H61" t="s">
-        <v>40</v>
-      </c>
-      <c r="I61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>1500000</v>
-      </c>
-      <c r="L61" t="s">
-        <v>292</v>
-      </c>
-      <c r="M61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N61">
-        <v>70</v>
-      </c>
-      <c r="O61">
         <v>70</v>
       </c>
     </row>
